--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73441</v>
+        <v>81694</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valentina Gonçalves</t>
+          <t>Emilly da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>3963.06</v>
+        <v>11913.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82233</v>
+        <v>85744</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Beatriz Cardoso</t>
+          <t>Marcos Vinicius Pires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>7499.2</v>
+        <v>9185.219999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>465</v>
+        <v>34831</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lara Melo</t>
+          <t>Luana Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>12152.49</v>
+        <v>2825.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5276</v>
+        <v>66299</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando Araújo</t>
+          <t>Felipe Almeida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>5823.9</v>
+        <v>9256.969999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49266</v>
+        <v>86871</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Francisco Moraes</t>
+          <t>Vitória Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>12030.16</v>
+        <v>3310.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45502</v>
+        <v>44773</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cauã Gomes</t>
+          <t>Calebe Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7869.3</v>
+        <v>5079.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52614</v>
+        <v>35400</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Laura Azevedo</t>
+          <t>Rebeca Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>7509.61</v>
+        <v>2857.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95211</v>
+        <v>49276</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erick Araújo</t>
+          <t>Vitor Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,26 +693,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>4337.47</v>
+        <v>3541.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52590</v>
+        <v>1233</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kamilly Farias</t>
+          <t>Alícia Azevedo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>6647.07</v>
+        <v>8804.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40640</v>
+        <v>68028</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rafael Fogaça</t>
+          <t>Sr. Breno Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>8358.959999999999</v>
+        <v>10340.37</v>
       </c>
     </row>
   </sheetData>
